--- a/cases/BASECASE_CY_5_AB3/inputs/components/delivery-costs-linepack-CY-linear.xlsx
+++ b/cases/BASECASE_CY_5_AB3/inputs/components/delivery-costs-linepack-CY-linear.xlsx
@@ -8,16 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyang/Documents/GitHub/SERA-supply-chain-inputs/cases/BASECASE_CY_5_AB3/inputs/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD69A63-7F53-1846-B38D-6582493BF40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA6244E-46B9-8242-BCA9-C5DFB2D4C868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="24540" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="24540" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="delivery-costs-linepack-CY-line" sheetId="1" r:id="rId1"/>
     <sheet name="exporttotsv" sheetId="4" r:id="rId2"/>
-    <sheet name="cap" sheetId="2" r:id="rId3"/>
-    <sheet name="storage" sheetId="3" r:id="rId4"/>
+    <sheet name="scaling" sheetId="5" r:id="rId3"/>
+    <sheet name="cap" sheetId="2" r:id="rId4"/>
+    <sheet name="storage" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">scaling!$A$13:$A$46</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">scaling!$A$2:$A$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">scaling!$E$13:$E$46</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">scaling!$E$2:$E$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">scaling!$F$13:$F$46</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="34">
   <si>
     <t>Technology</t>
   </si>
@@ -135,13 +143,17 @@
   <si>
     <t>use this in the model linear ($/km)</t>
   </si>
+  <si>
+    <t>Calculated scale exponent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -279,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,6 +471,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -621,7 +639,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -629,6 +647,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -689,6 +709,1041 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sawtooth pattern issue</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1531168616058915"/>
+          <c:y val="0.1244464408391904"/>
+          <c:w val="0.77418902734245598"/>
+          <c:h val="0.69035221687893045"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>table values</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scaling!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1040250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1844710</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3275875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10343370</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32679180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103269815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>326370955</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1031481240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scaling!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>421000.24361020961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>421000.24361020961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>459064.27578153333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>507440.36077579047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>647707.26194418094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>883549.27168630471</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1295862.5715107142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2065088.3676446856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3750025.3443205715</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F101-8E4B-BC37-B6180C36AA4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>initial scaling exponents</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scaling!$A$13:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>6240250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7332293.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8615445.15625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10123148.05859375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11894698.968847657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13976271.288395997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16422118.763865298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19295989.547541726</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22672787.71836153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26640525.569074798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31302617.543662891</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36780575.613803901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43217176.346219584</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50780182.206808016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59666714.092999421</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70108389.059274316</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82377357.14464733</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96793394.644960612</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113732238.70782873</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>133635380.48169877</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>157021572.06599605</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>184500347.17754537</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>216787907.9336158</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>254725791.82199857</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>299302805.39084834</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>351680796.33424681</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>413224935.69274002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>485539299.43896955</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>570508676.8407892</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>670347695.28792739</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>787658541.96331465</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>925498786.80689478</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1087461074.4981015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scaling!$E$13:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>746981.43368682521</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>822872.45986394852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>906473.78189914988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>998568.74224032776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>704358.24595010525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>775918.8867784061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>854749.86957430816</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>941589.83881771064</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1037252.483005715</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1142634.1588949657</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1258722.2903436637</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>948504.06375390559</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1044869.1720219575</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1151024.6801906286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1267965.2629086252</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1396786.6507229642</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1538695.8970487774</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1695022.6882318077</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1373109.1450838866</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1512612.8293445285</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1666289.6607231325</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1835579.587564375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022068.85255519</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2227504.8557819431</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2453812.5278287032</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2159737.3130292855</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2379160.0102573042</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2620875.3815843253</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2887148.2944318275</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3180473.7198155927</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3503600.1101662428</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3859555.1522647515</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3953544.119067024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F101-8E4B-BC37-B6180C36AA4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>fixed scaling exponents</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>scaling!$A$13:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>6240250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7332293.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8615445.15625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10123148.05859375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11894698.968847657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13976271.288395997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16422118.763865298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19295989.547541726</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22672787.71836153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26640525.569074798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31302617.543662891</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36780575.613803901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43217176.346219584</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50780182.206808016</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>59666714.092999421</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70108389.059274316</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82377357.14464733</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96793394.644960612</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113732238.70782873</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>133635380.48169877</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>157021572.06599605</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>184500347.17754537</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>216787907.9336158</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>254725791.82199857</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>299302805.39084834</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>351680796.33424681</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>413224935.69274002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>485539299.43896955</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>570508676.8407892</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>670347695.28792739</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>787658541.96331465</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>925498786.80689478</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1087461074.4981015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>scaling!$F$13:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>581827.15705805819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>602089.31853557599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>623057.11085682572</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>644755.10765321273</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>672605.30212067522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>702529.49115146301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>733785.00642414473</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>766431.07860193192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800529.5735184052</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>836145.10941616225</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>873345.17940141005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>919013.68808923592</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>969693.31890111009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1023167.7121985876</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1079590.9870473724</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1139125.7615131852</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1201943.6213448634</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1268225.6145033047</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1347508.0822943237</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1438449.830240442</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1535529.130627369</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1639160.1997068755</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1749785.208702177</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1867876.1704563361</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1993936.9534083586</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2146622.6070560724</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2333817.3681759923</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2537336.3208308187</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2758603.0050153355</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2999165.0995591623</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3260705.2475692178</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3545052.8258975232</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3953544.119067024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F101-8E4B-BC37-B6180C36AA4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1038162272"/>
+        <c:axId val="1038163920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1038162272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>pipeline caapcity </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1038163920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1038163920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Capital Cost ($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1038162272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.66009465138101264"/>
+          <c:y val="0.55616498441050577"/>
+          <c:w val="0.28779196289784165"/>
+          <c:h val="0.17998812299300573"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2702,7 +3757,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4760,7 +5815,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6676,7 +7731,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8759,6 +9814,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10862,7 +11957,696 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47344D85-E48D-D6C2-2148-BC29648CD271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887620DD-DF81-1E05-7CE0-9926E44C1501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8267700" y="4851400"/>
+          <a:ext cx="4584700" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>cap_cost_2 = cap_cost_1 *</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> (size_2/size_1)^</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> scaling factor</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ln (cap_cost_2/cap_cost_1)= scaling factor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> * ln(size_2/size_1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>scaling factor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ln (cap_cost_2/cap_cost_1)/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ln(size_2/size_1)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10941,7 +12725,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11319,8 +13103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11844,8 +13628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11915,8 +13699,9 @@
       <c r="E2">
         <v>50</v>
       </c>
-      <c r="F2">
-        <v>0.6</v>
+      <c r="F2" s="8">
+        <f>scaling!G2</f>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
         <f>G3</f>
@@ -11961,8 +13746,9 @@
       <c r="E3">
         <v>50</v>
       </c>
-      <c r="F3">
-        <v>0.6</v>
+      <c r="F3" s="8">
+        <f>scaling!G3</f>
+        <v>0.15109567607390298</v>
       </c>
       <c r="G3" s="4">
         <f>cap!Q26</f>
@@ -12007,8 +13793,9 @@
       <c r="E4">
         <v>50</v>
       </c>
-      <c r="F4">
-        <v>0.6</v>
+      <c r="F4" s="8">
+        <f>scaling!G4</f>
+        <v>0.17446530017132622</v>
       </c>
       <c r="G4" s="4">
         <f>cap!Q27</f>
@@ -12053,8 +13840,9 @@
       <c r="E5">
         <v>50</v>
       </c>
-      <c r="F5">
-        <v>0.6</v>
+      <c r="F5" s="8">
+        <f>scaling!G5</f>
+        <v>0.212269948219038</v>
       </c>
       <c r="G5" s="4">
         <f>cap!Q28</f>
@@ -12099,8 +13887,9 @@
       <c r="E6">
         <v>50</v>
       </c>
-      <c r="F6">
-        <v>0.6</v>
+      <c r="F6" s="8">
+        <f>scaling!G6</f>
+        <v>0.2699150388043865</v>
       </c>
       <c r="G6" s="4">
         <f>cap!Q29</f>
@@ -12145,8 +13934,9 @@
       <c r="E7">
         <v>50</v>
       </c>
-      <c r="F7">
-        <v>0.6</v>
+      <c r="F7" s="8">
+        <f>scaling!G7</f>
+        <v>0.33285456200032293</v>
       </c>
       <c r="G7" s="4">
         <f>cap!Q30</f>
@@ -12191,8 +13981,9 @@
       <c r="E8">
         <v>50</v>
       </c>
-      <c r="F8">
-        <v>0.6</v>
+      <c r="F8" s="8">
+        <f>scaling!G8</f>
+        <v>0.40497150962069339</v>
       </c>
       <c r="G8" s="4">
         <f>cap!Q31</f>
@@ -12237,8 +14028,9 @@
       <c r="E9">
         <v>50</v>
       </c>
-      <c r="F9">
-        <v>0.6</v>
+      <c r="F9" s="8">
+        <f>scaling!G9</f>
+        <v>0.51845052510284817</v>
       </c>
       <c r="G9" s="4">
         <f>cap!Q32</f>
@@ -12283,7 +14075,8 @@
       <c r="E10">
         <v>50</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="8">
+        <f>scaling!G10</f>
         <v>1</v>
       </c>
       <c r="G10" s="4">
@@ -12319,6 +14112,845 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E93CD2-26BE-3044-AAAD-0AB999F1D9EC}">
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>exporttotsv!G2</f>
+        <v>421000.24361020961</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1040250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="4">
+        <f>exporttotsv!G3</f>
+        <v>421000.24361020961</v>
+      </c>
+      <c r="G3" s="7">
+        <f>LN(E4/E3)/LN(A4/A3)</f>
+        <v>0.15109567607390298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1844710</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <f>D3</f>
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="4">
+        <f>exporttotsv!G4</f>
+        <v>459064.27578153333</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4:G9" si="0">LN(E5/E4)/LN(A5/A4)</f>
+        <v>0.17446530017132622</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3275875</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D9" si="1">D4</f>
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="4">
+        <f>exporttotsv!G5</f>
+        <v>507440.36077579047</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.212269948219038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10343370</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="4">
+        <f>exporttotsv!G6</f>
+        <v>647707.26194418094</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.2699150388043865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>32679180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="4">
+        <f>exporttotsv!G7</f>
+        <v>883549.27168630471</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.33285456200032293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>103269815</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="4">
+        <f>exporttotsv!G8</f>
+        <v>1295862.5715107142</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.40497150962069339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>326370955</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="E9" s="4">
+        <f>exporttotsv!G9</f>
+        <v>2065088.3676446856</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.51845052510284817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1031481240</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <f>exporttotsv!G10</f>
+        <v>3750025.3443205715</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6240250</v>
+      </c>
+      <c r="B13">
+        <f>MATCH(A13,$A$2:$A$10,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <f ca="1">OFFSET($E$1,B13,0)*(A13/OFFSET($A$1,B13,0))^OFFSET($D$1,B13,0)</f>
+        <v>746981.43368682521</v>
+      </c>
+      <c r="F13">
+        <f ca="1">OFFSET($E$1,B13,0)*(A13/OFFSET($A$1,B13,0))^OFFSET($G$1,B13,0)</f>
+        <v>581827.15705805819</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f>A13*$A$12</f>
+        <v>7332293.75</v>
+      </c>
+      <c r="B14">
+        <f>MATCH(A14,$A$2:$A$10,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f ca="1">OFFSET($E$1,B14,0)*(A14/OFFSET($A$1,B14,0))^OFFSET($D$1,B14,0)</f>
+        <v>822872.45986394852</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F33" ca="1" si="2">OFFSET($E$1,B14,0)*(A14/OFFSET($A$1,B14,0))^OFFSET($G$1,B14,0)</f>
+        <v>602089.31853557599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" ref="A15:A33" si="3">A14*$A$12</f>
+        <v>8615445.15625</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B45" si="4">MATCH(A15,$A$2:$A$10,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E33" ca="1" si="5">OFFSET($E$1,B15,0)*(A15/OFFSET($A$1,B15,0))^OFFSET($D$1,B15,0)</f>
+        <v>906473.78189914988</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="2"/>
+        <v>623057.11085682572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>10123148.05859375</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="5"/>
+        <v>998568.74224032776</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="2"/>
+        <v>644755.10765321273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>11894698.968847657</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="5"/>
+        <v>704358.24595010525</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="2"/>
+        <v>672605.30212067522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="3"/>
+        <v>13976271.288395997</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="5"/>
+        <v>775918.8867784061</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="2"/>
+        <v>702529.49115146301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="3"/>
+        <v>16422118.763865298</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="5"/>
+        <v>854749.86957430816</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="2"/>
+        <v>733785.00642414473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="3"/>
+        <v>19295989.547541726</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="5"/>
+        <v>941589.83881771064</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="2"/>
+        <v>766431.07860193192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="3"/>
+        <v>22672787.71836153</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="5"/>
+        <v>1037252.483005715</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="2"/>
+        <v>800529.5735184052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="3"/>
+        <v>26640525.569074798</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="5"/>
+        <v>1142634.1588949657</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>836145.10941616225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="3"/>
+        <v>31302617.543662891</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1258722.2903436637</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="2"/>
+        <v>873345.17940141005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="3"/>
+        <v>36780575.613803901</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="5"/>
+        <v>948504.06375390559</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="2"/>
+        <v>919013.68808923592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="3"/>
+        <v>43217176.346219584</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="5"/>
+        <v>1044869.1720219575</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="2"/>
+        <v>969693.31890111009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="3"/>
+        <v>50780182.206808016</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="5"/>
+        <v>1151024.6801906286</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="2"/>
+        <v>1023167.7121985876</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="3"/>
+        <v>59666714.092999421</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="5"/>
+        <v>1267965.2629086252</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="2"/>
+        <v>1079590.9870473724</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="3"/>
+        <v>70108389.059274316</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="5"/>
+        <v>1396786.6507229642</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="2"/>
+        <v>1139125.7615131852</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="3"/>
+        <v>82377357.14464733</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="5"/>
+        <v>1538695.8970487774</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="2"/>
+        <v>1201943.6213448634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="3"/>
+        <v>96793394.644960612</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="5"/>
+        <v>1695022.6882318077</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="2"/>
+        <v>1268225.6145033047</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="3"/>
+        <v>113732238.70782873</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="5"/>
+        <v>1373109.1450838866</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="2"/>
+        <v>1347508.0822943237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="3"/>
+        <v>133635380.48169877</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="5"/>
+        <v>1512612.8293445285</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="2"/>
+        <v>1438449.830240442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="3"/>
+        <v>157021572.06599605</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="5"/>
+        <v>1666289.6607231325</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="2"/>
+        <v>1535529.130627369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" ref="A34:A45" si="6">A33*$A$12</f>
+        <v>184500347.17754537</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E45" ca="1" si="7">OFFSET($E$1,B34,0)*(A34/OFFSET($A$1,B34,0))^OFFSET($D$1,B34,0)</f>
+        <v>1835579.587564375</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F45" ca="1" si="8">OFFSET($E$1,B34,0)*(A34/OFFSET($A$1,B34,0))^OFFSET($G$1,B34,0)</f>
+        <v>1639160.1997068755</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="6"/>
+        <v>216787907.9336158</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="7"/>
+        <v>2022068.85255519</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="8"/>
+        <v>1749785.208702177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="6"/>
+        <v>254725791.82199857</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="7"/>
+        <v>2227504.8557819431</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="8"/>
+        <v>1867876.1704563361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="6"/>
+        <v>299302805.39084834</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="7"/>
+        <v>2453812.5278287032</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="8"/>
+        <v>1993936.9534083586</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="6"/>
+        <v>351680796.33424681</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="7"/>
+        <v>2159737.3130292855</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="8"/>
+        <v>2146622.6070560724</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="6"/>
+        <v>413224935.69274002</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="7"/>
+        <v>2379160.0102573042</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="8"/>
+        <v>2333817.3681759923</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="6"/>
+        <v>485539299.43896955</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="7"/>
+        <v>2620875.3815843253</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="8"/>
+        <v>2537336.3208308187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="6"/>
+        <v>570508676.8407892</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="7"/>
+        <v>2887148.2944318275</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="8"/>
+        <v>2758603.0050153355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="6"/>
+        <v>670347695.28792739</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="7"/>
+        <v>3180473.7198155927</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="8"/>
+        <v>2999165.0995591623</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="6"/>
+        <v>787658541.96331465</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="7"/>
+        <v>3503600.1101662428</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="8"/>
+        <v>3260705.2475692178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="6"/>
+        <v>925498786.80689478</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="7"/>
+        <v>3859555.1522647515</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="8"/>
+        <v>3545052.8258975232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="6"/>
+        <v>1087461074.4981015</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="7"/>
+        <v>3953544.119067024</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="8"/>
+        <v>3953544.119067024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB34"/>
   <sheetViews>
@@ -14348,7 +16980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
